--- a/AccessibleDashboardData/2022-01-21.xlsx
+++ b/AccessibleDashboardData/2022-01-21.xlsx
@@ -11773,60 +11773,96 @@
       <c r="A4" t="s">
         <v>1893</v>
       </c>
+      <c r="B4">
+        <v>13371</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>1894</v>
       </c>
+      <c r="B5">
+        <v>10262</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>1895</v>
       </c>
+      <c r="B6">
+        <v>2613</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>1896</v>
       </c>
+      <c r="B7">
+        <v>496</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>1897</v>
       </c>
+      <c r="B8">
+        <v>2205</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>1898</v>
       </c>
+      <c r="B9">
+        <v>63428</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>1899</v>
       </c>
+      <c r="B10">
+        <v>59236</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>1900</v>
       </c>
+      <c r="B11">
+        <v>6974</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>1901</v>
       </c>
+      <c r="B12">
+        <v>282</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>1902</v>
       </c>
+      <c r="B13">
+        <v>111</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>1903</v>
       </c>
+      <c r="B14">
+        <v>1485</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>1904</v>
+      </c>
+      <c r="B15">
+        <v>7374</v>
       </c>
     </row>
   </sheetData>
